--- a/medicine/Sexualité et sexologie/Femellisation/Femellisation.xlsx
+++ b/medicine/Sexualité et sexologie/Femellisation/Femellisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La femellisation est un jeu coquin BDSM provisoire ou permanent consistant à transformer, avec son consentement voire à sa demande, son ou sa partenaire de jeu en femelle soumise, en général par la transformation physique (à l'aide d'épilation, de maquillage, de postiches, de prothèses, d'accessoires, de lingeries et vêtements ultra sexy, souvent tenue de soubrette et collier de chienne verni ou en métal) puis par la « contrainte » simulée de pratiques considérées comme avilissantes d'ordre domestique ou sexuel, telles que restriction de langage, ménage, vaisselle, lavage et étendage de linge, cirage de bottes ou cuissardes, service à/sous la table, masturbation, fellation et sodomie passives, bondage et fessées reçues, et autres humiliations en privé ou en public.
 Elle est souvent assimilée à une forme de masochisme, plus psychologique que physique, où le plaisir est avant tout obtenu par la recherche du sentiment de honte due à l'humiliation tant vestimentaire que physique et verbale.
-Il existe aussi une autre forme de femellisation, « la femellisation forcée », dans laquelle un partenaire masculin est forcé de porter des vêtements de femme et à agir comme telle[1]. En général, cependant, l'individu mâle est très consentant et ne désire qu'être humilié. Cette émasculation psychique peut être accompagnée par une ou plusieurs punitions telles que la fessée érotique ou les coups de canne pour entreprendre une coopération tout en intensifiant la soumission du partenaire masculin la subissant. Durant cette pratique, le partenaire masculin est consentant à la femellisation, mais la conséquence parallèle probable moderne et commune de la « femellisation forcée » serait l'esclavage sexuel réellement imposé dans les prisons. C'est d'ailleurs pour cette raison qu'il n'est pas rare que des hommes ayant un penchant pour les rôles de « femellisation forcée » apprécient également l'ambiance des prisons, bien que des hétérosexuels aient un grand intérêt pour une « femellisation forcée » par les femmes. Les costumes sont souvent très domestiques, suggestifs de servitude ou de jeu d'âges. Les habits peuvent être ceux appartenant aux rôles traditionnels de soumises féminines telles que secrétaire ou lycéenne.
+Il existe aussi une autre forme de femellisation, « la femellisation forcée », dans laquelle un partenaire masculin est forcé de porter des vêtements de femme et à agir comme telle. En général, cependant, l'individu mâle est très consentant et ne désire qu'être humilié. Cette émasculation psychique peut être accompagnée par une ou plusieurs punitions telles que la fessée érotique ou les coups de canne pour entreprendre une coopération tout en intensifiant la soumission du partenaire masculin la subissant. Durant cette pratique, le partenaire masculin est consentant à la femellisation, mais la conséquence parallèle probable moderne et commune de la « femellisation forcée » serait l'esclavage sexuel réellement imposé dans les prisons. C'est d'ailleurs pour cette raison qu'il n'est pas rare que des hommes ayant un penchant pour les rôles de « femellisation forcée » apprécient également l'ambiance des prisons, bien que des hétérosexuels aient un grand intérêt pour une « femellisation forcée » par les femmes. Les costumes sont souvent très domestiques, suggestifs de servitude ou de jeu d'âges. Les habits peuvent être ceux appartenant aux rôles traditionnels de soumises féminines telles que secrétaire ou lycéenne.
 La femellisation a aussi l'avantage pour l'homme qu'est le port de vêtements beaucoup plus pratiques pour la pratique du bondage. En effet, les vêtements féminins sont plus proches du corps, donc ne forment pas de plis au contact avec les cordes. De plus, la jupe portée avec des collants permet de bien attacher les jambes tout en laissant habillé le sujet. In fine, les chaussures à talons rendent la marche difficile, surtout aux personnes qui n'en ont pas l'habitude, et le fait d'être habillé en femme renforce chez l'homme la sensation d'être humilié.
 </t>
         </is>
